--- a/Account_starts_by_DD_and_profit/dd_trigger_optimization_results.xlsx
+++ b/Account_starts_by_DD_and_profit/dd_trigger_optimization_results.xlsx
@@ -1,37 +1,75 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vova deduskin lap\PycharmProjects\1500_count\Account_starts_by_DD_and_profit\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CE20C74-147E-4258-9919-FD5A066AF9E4}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>DD_trigger</t>
+  </si>
+  <si>
+    <t>Prof_trigger</t>
+  </si>
+  <si>
+    <t>DD_thres</t>
+  </si>
+  <si>
+    <t>Profit_thres</t>
+  </si>
+  <si>
+    <t>Final_equity</t>
+  </si>
+  <si>
+    <t>Accs_started</t>
+  </si>
+  <si>
+    <t>Accs_alive</t>
+  </si>
+  <si>
+    <t>Accs_blown</t>
+  </si>
+  <si>
+    <t>Portf_max_DD</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,94 +84,3070 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Final_equity</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$H$1:$H$31</c:f>
+              <c:strCache>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>Accs_blown</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>1940348</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1355826</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>992444</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>871461</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>542280</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>483808</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>435378</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>435039</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>342187</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>294940</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>272192</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>267479</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>264776</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>190128</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>164044</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>149573</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>131896</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>125539</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>105620</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>105598</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>105472</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>105472</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>105472</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>105472</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>88565</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>88328</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>88328</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>88142</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>88142</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>87989</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-863F-419C-8E31-8A5A07330FDD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="150510831"/>
+        <c:axId val="2087857199"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>DD_trigger</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$H$1:$H$31</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="31"/>
+                      <c:pt idx="0">
+                        <c:v>Accs_blown</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>28</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$2:$A$31</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="30"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>1</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-863F-419C-8E31-8A5A07330FDD}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Prof_trigger</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$H$1:$H$31</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="31"/>
+                      <c:pt idx="0">
+                        <c:v>Accs_blown</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>28</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$2:$B$31</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="30"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-863F-419C-8E31-8A5A07330FDD}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$C$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>DD_thres</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$H$1:$H$31</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="31"/>
+                      <c:pt idx="0">
+                        <c:v>Accs_blown</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>28</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$C$2:$C$31</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="30"/>
+                      <c:pt idx="0">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>200</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>300</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>400</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>600</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>800</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>700</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>900</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1200</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>1100</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>1300</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>1400</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>1600</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>1500</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>1700</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>1800</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>2400</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>2300</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>1900</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>2000</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>2100</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>2200</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>3000</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>2800</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>2900</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>2600</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>2700</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>2500</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-863F-419C-8E31-8A5A07330FDD}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$D$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Profit_thres</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$H$1:$H$31</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="31"/>
+                      <c:pt idx="0">
+                        <c:v>Accs_blown</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>28</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$D$2:$D$31</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="30"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-863F-419C-8E31-8A5A07330FDD}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="5"/>
+                <c:order val="5"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$F$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Accs_started</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$H$1:$H$31</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="31"/>
+                      <c:pt idx="0">
+                        <c:v>Accs_blown</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>28</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$F$2:$F$31</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="30"/>
+                      <c:pt idx="0">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>76</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>57</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>48</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>34</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>25</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>27</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>21</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>2</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000005-863F-419C-8E31-8A5A07330FDD}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="6"/>
+                <c:order val="6"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$G$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Accs_alive</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$H$1:$H$31</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="31"/>
+                      <c:pt idx="0">
+                        <c:v>Accs_blown</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>28</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$G$2:$G$31</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="30"/>
+                      <c:pt idx="0">
+                        <c:v>72</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>59</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>45</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>38</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>22</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>2</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000006-863F-419C-8E31-8A5A07330FDD}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="7"/>
+                <c:order val="7"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$H$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Accs_blown</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$H$1:$H$31</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="31"/>
+                      <c:pt idx="0">
+                        <c:v>Accs_blown</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>28</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$H$2:$H$31</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="30"/>
+                      <c:pt idx="0">
+                        <c:v>28</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000007-863F-419C-8E31-8A5A07330FDD}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="8"/>
+                <c:order val="8"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$I$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Portf_max_DD</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$H$1:$H$31</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="31"/>
+                      <c:pt idx="0">
+                        <c:v>Accs_blown</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>28</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$I$2:$I$31</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="30"/>
+                      <c:pt idx="0">
+                        <c:v>-148848</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>-104070</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>-72941</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>-65826</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>-41888</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>-37867</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>-35078</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>-35004</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>-27838</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>-20914</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>-18026</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>-19144</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>-16479</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>-12817</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>-10986</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>-10986</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>-9155</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>-7325</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>-5586</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>-5586</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>-5586</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>-5586</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>-5586</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>-5586</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>-4826</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>-4826</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>-4826</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>-4826</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>-4826</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>-4826</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000008-863F-419C-8E31-8A5A07330FDD}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="150510831"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2087857199"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2087857199"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="150510831"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{245EF8E8-B2BA-4CE9-939E-CE09AA65F521}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -420,888 +3434,834 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="11" customWidth="1" min="1" max="1"/>
-    <col width="13" customWidth="1" min="2" max="2"/>
-    <col width="9" customWidth="1" min="3" max="3"/>
-    <col width="13" customWidth="1" min="4" max="4"/>
-    <col width="13" customWidth="1" min="5" max="5"/>
-    <col width="13" customWidth="1" min="6" max="6"/>
-    <col width="11" customWidth="1" min="7" max="7"/>
-    <col width="11" customWidth="1" min="8" max="8"/>
-    <col width="13" customWidth="1" min="9" max="9"/>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="9" customWidth="1"/>
+    <col min="4" max="6" width="13" customWidth="1"/>
+    <col min="7" max="8" width="11" customWidth="1"/>
+    <col min="9" max="9" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>DD_trigger</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Prof_trigger</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>DD_thres</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Profit_thres</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Final_equity</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Accs_started</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Accs_alive</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Accs_blown</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Portf_max_DD</t>
-        </is>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="b">
         <v>1</v>
       </c>
       <c r="B2" t="b">
         <v>0</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>100</v>
       </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>1940348</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>100</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>72</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>28</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2">
         <v>-148848</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="b">
         <v>1</v>
       </c>
       <c r="B3" t="b">
         <v>0</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>200</v>
       </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>1355826</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>76</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>59</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>17</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3">
         <v>-104070</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="b">
         <v>1</v>
       </c>
       <c r="B4" t="b">
         <v>0</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>300</v>
       </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>992444</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>57</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>45</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>12</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4">
         <v>-72941</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="b">
         <v>1</v>
       </c>
       <c r="B5" t="b">
         <v>0</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>400</v>
       </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>871461</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>48</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>38</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
         <v>10</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5">
         <v>-65826</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="b">
         <v>1</v>
       </c>
       <c r="B6" t="b">
         <v>0</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>500</v>
       </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>542280</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>34</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>24</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
         <v>10</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6">
         <v>-41888</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="b">
         <v>1</v>
       </c>
       <c r="B7" t="b">
         <v>0</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>600</v>
       </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>483808</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>32</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>22</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
         <v>10</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7">
         <v>-37867</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="b">
         <v>1</v>
       </c>
       <c r="B8" t="b">
         <v>0</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>800</v>
       </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>435378</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>25</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>19</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
         <v>6</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8">
         <v>-35078</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="b">
         <v>1</v>
       </c>
       <c r="B9" t="b">
         <v>0</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>700</v>
       </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>435039</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>27</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>19</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
         <v>8</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9">
         <v>-35004</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="b">
         <v>1</v>
       </c>
       <c r="B10" t="b">
         <v>0</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>900</v>
       </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>342187</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>21</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>16</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10">
         <v>5</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10">
         <v>-27838</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="b">
         <v>1</v>
       </c>
       <c r="B11" t="b">
         <v>0</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>1000</v>
       </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>294940</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>18</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>14</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11">
         <v>4</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11">
         <v>-20914</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="b">
         <v>1</v>
       </c>
       <c r="B12" t="b">
         <v>0</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>1200</v>
       </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>272192</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>15</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>13</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12">
         <v>2</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I12">
         <v>-18026</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="b">
         <v>1</v>
       </c>
       <c r="B13" t="b">
         <v>0</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>1100</v>
       </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>267479</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>17</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>13</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13">
         <v>4</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I13">
         <v>-19144</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="b">
         <v>1</v>
       </c>
       <c r="B14" t="b">
         <v>0</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>1300</v>
       </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>264776</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>12</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>11</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H14">
         <v>1</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I14">
         <v>-16479</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="b">
         <v>1</v>
       </c>
       <c r="B15" t="b">
         <v>0</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>1400</v>
       </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>190128</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>10</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>9</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H15">
         <v>1</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I15">
         <v>-12817</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="b">
         <v>1</v>
       </c>
       <c r="B16" t="b">
         <v>0</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>1600</v>
       </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>164044</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>7</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>7</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
         <v>-10986</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="b">
         <v>1</v>
       </c>
       <c r="B17" t="b">
         <v>0</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>1500</v>
       </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>149573</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>8</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>7</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H17">
         <v>1</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I17">
         <v>-10986</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="b">
         <v>1</v>
       </c>
       <c r="B18" t="b">
         <v>0</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>1700</v>
       </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>131896</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>6</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18">
         <v>6</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
         <v>-9155</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="b">
         <v>1</v>
       </c>
       <c r="B19" t="b">
         <v>0</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>1800</v>
       </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>125539</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>5</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19">
         <v>5</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
         <v>-7325</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="b">
         <v>1</v>
       </c>
       <c r="B20" t="b">
         <v>0</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>2400</v>
       </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>105620</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>3</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20">
         <v>3</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
         <v>-5586</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="b">
         <v>1</v>
       </c>
       <c r="B21" t="b">
         <v>0</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>2300</v>
       </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>105598</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21">
         <v>3</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21">
         <v>3</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
         <v>-5586</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="b">
         <v>1</v>
       </c>
       <c r="B22" t="b">
         <v>0</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>1900</v>
       </c>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="n">
+      <c r="E22">
         <v>105472</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22">
         <v>3</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22">
         <v>3</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
         <v>-5586</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="b">
         <v>1</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>2000</v>
       </c>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="n">
+      <c r="E23">
         <v>105472</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23">
         <v>3</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23">
         <v>3</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
         <v>-5586</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="b">
         <v>1</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>2100</v>
       </c>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="n">
+      <c r="E24">
         <v>105472</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24">
         <v>3</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24">
         <v>3</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
         <v>-5586</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="b">
         <v>1</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>2200</v>
       </c>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="n">
+      <c r="E25">
         <v>105472</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25">
         <v>3</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25">
         <v>3</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
         <v>-5586</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="b">
         <v>1</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>3000</v>
       </c>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="n">
+      <c r="E26">
         <v>88565</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26">
         <v>2</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G26">
         <v>2</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
         <v>-4826</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="b">
         <v>1</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>2800</v>
       </c>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="n">
+      <c r="E27">
         <v>88328</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27">
         <v>2</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G27">
         <v>2</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
         <v>-4826</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="b">
         <v>1</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>2900</v>
       </c>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="n">
+      <c r="E28">
         <v>88328</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28">
         <v>2</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G28">
         <v>2</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
         <v>-4826</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="b">
         <v>1</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>2600</v>
       </c>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="n">
+      <c r="E29">
         <v>88142</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F29">
         <v>2</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G29">
         <v>2</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
         <v>-4826</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="b">
         <v>1</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>2700</v>
       </c>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="n">
+      <c r="E30">
         <v>88142</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F30">
         <v>2</v>
       </c>
-      <c r="G30" t="n">
+      <c r="G30">
         <v>2</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
         <v>-4826</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="b">
         <v>1</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>2500</v>
       </c>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="n">
+      <c r="E31">
         <v>87989</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F31">
         <v>2</v>
       </c>
-      <c r="G31" t="n">
+      <c r="G31">
         <v>2</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
         <v>-4826</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Account_starts_by_DD_and_profit/dd_trigger_optimization_results.xlsx
+++ b/Account_starts_by_DD_and_profit/dd_trigger_optimization_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vova deduskin lap\PycharmProjects\1500_count\Account_starts_by_DD_and_profit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B543341-CA7A-4DDB-8C24-A6C3D072EBB7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7261AA9D-F255-43AD-B90D-ED36492F42C7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="24825" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -76,18 +76,12 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -117,14 +111,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -427,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -494,19 +486,19 @@
         <v>500</v>
       </c>
       <c r="G2" s="2">
-        <v>3539414</v>
+        <v>187932</v>
       </c>
       <c r="H2">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="I2">
-        <v>89</v>
+        <v>15</v>
       </c>
       <c r="J2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>-214757</v>
+        <v>-14056</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -520,22 +512,22 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="G3" s="2">
-        <v>3531956</v>
+        <v>143067</v>
       </c>
       <c r="H3">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="I3">
-        <v>88</v>
+        <v>11</v>
       </c>
       <c r="J3">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>-212344</v>
+        <v>-9613</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -552,19 +544,19 @@
         <v>700</v>
       </c>
       <c r="G4" s="2">
-        <v>3529662</v>
+        <v>101427</v>
       </c>
       <c r="H4">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="I4">
-        <v>91</v>
+        <v>8</v>
       </c>
       <c r="J4">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>-219583</v>
+        <v>-6268</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -578,22 +570,22 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="G5" s="2">
-        <v>3525924</v>
+        <v>81792</v>
       </c>
       <c r="H5">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="I5">
-        <v>88</v>
+        <v>7</v>
       </c>
       <c r="J5">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>-212344</v>
+        <v>-5195</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -607,22 +599,22 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="G6" s="2">
-        <v>3525740</v>
+        <v>53612</v>
       </c>
       <c r="H6">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="I6">
-        <v>87</v>
+        <v>4</v>
       </c>
       <c r="J6">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>-209931</v>
+        <v>-3220</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -636,22 +628,22 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="G7" s="2">
-        <v>3503654</v>
+        <v>53295</v>
       </c>
       <c r="H7">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="I7">
-        <v>91</v>
+        <v>4</v>
       </c>
       <c r="J7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>-219583</v>
+        <v>-2994</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -665,22 +657,22 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="G8" s="2">
-        <v>3496602</v>
+        <v>32228</v>
       </c>
       <c r="H8">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="I8">
-        <v>89</v>
+        <v>2</v>
       </c>
       <c r="J8">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>-214757</v>
+        <v>-2147</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -694,22 +686,22 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>900</v>
+        <v>2100</v>
       </c>
       <c r="G9" s="2">
-        <v>3421488</v>
+        <v>22240</v>
       </c>
       <c r="H9">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="I9">
-        <v>90</v>
+        <v>1</v>
       </c>
       <c r="J9">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>-217170</v>
+        <v>-1136</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -723,22 +715,22 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>1000</v>
+        <v>2900</v>
       </c>
       <c r="G10" s="2">
-        <v>3296872</v>
+        <v>22240</v>
       </c>
       <c r="H10">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="I10">
-        <v>88</v>
+        <v>1</v>
       </c>
       <c r="J10">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>-227320</v>
+        <v>-1136</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -752,22 +744,22 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1100</v>
+        <v>2800</v>
       </c>
       <c r="G11" s="2">
-        <v>3128210</v>
+        <v>22240</v>
       </c>
       <c r="H11">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="I11">
-        <v>91</v>
+        <v>1</v>
       </c>
       <c r="J11">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>-183672</v>
+        <v>-1136</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -781,22 +773,22 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>1200</v>
+        <v>2700</v>
       </c>
       <c r="G12" s="2">
-        <v>2903985</v>
+        <v>22240</v>
       </c>
       <c r="H12">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="I12">
-        <v>95</v>
+        <v>1</v>
       </c>
       <c r="J12">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>-176890</v>
+        <v>-1136</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -810,22 +802,22 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>1300</v>
+        <v>2600</v>
       </c>
       <c r="G13" s="2">
-        <v>2853439</v>
+        <v>22240</v>
       </c>
       <c r="H13">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="I13">
-        <v>97</v>
+        <v>1</v>
       </c>
       <c r="J13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>-180614</v>
+        <v>-1136</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -839,22 +831,22 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>100</v>
+        <v>2500</v>
       </c>
       <c r="G14" s="2">
-        <v>2543465</v>
+        <v>22240</v>
       </c>
       <c r="H14">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="I14">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="J14">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>-144780</v>
+        <v>-1136</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -868,22 +860,22 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>1400</v>
+        <v>2400</v>
       </c>
       <c r="G15" s="2">
-        <v>2373964</v>
+        <v>22240</v>
       </c>
       <c r="H15">
-        <v>90</v>
+        <v>1</v>
       </c>
       <c r="I15">
-        <v>88</v>
+        <v>1</v>
       </c>
       <c r="J15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>-157466</v>
+        <v>-1136</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -897,22 +889,22 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>1500</v>
+        <v>2300</v>
       </c>
       <c r="G16" s="2">
-        <v>2050965</v>
+        <v>22240</v>
       </c>
       <c r="H16">
-        <v>77</v>
+        <v>1</v>
       </c>
       <c r="I16">
-        <v>76</v>
+        <v>1</v>
       </c>
       <c r="J16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>-137325</v>
+        <v>-1136</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -926,22 +918,22 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>1600</v>
+        <v>2200</v>
       </c>
       <c r="G17" s="2">
-        <v>1754100</v>
+        <v>22240</v>
       </c>
       <c r="H17">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="I17">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>-119015</v>
+        <v>-1136</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -955,22 +947,22 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="G18" s="2">
-        <v>1577143</v>
+        <v>22240</v>
       </c>
       <c r="H18">
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="I18">
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>-106198</v>
+        <v>-1136</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -984,22 +976,22 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="G19" s="2">
-        <v>1274852</v>
+        <v>22240</v>
       </c>
       <c r="H19">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="I19">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>-86057</v>
+        <v>-1136</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -1016,19 +1008,19 @@
         <v>1900</v>
       </c>
       <c r="G20" s="2">
-        <v>948674</v>
+        <v>22240</v>
       </c>
       <c r="H20">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="I20">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>-63308</v>
+        <v>-1136</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -1042,22 +1034,22 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>2000</v>
+        <v>1700</v>
       </c>
       <c r="G21" s="2">
-        <v>795284</v>
+        <v>22240</v>
       </c>
       <c r="H21">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="I21">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>-52136</v>
+        <v>-1136</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -1071,51 +1063,51 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>2100</v>
+        <v>1600</v>
       </c>
       <c r="G22" s="2">
-        <v>598905</v>
+        <v>22240</v>
       </c>
       <c r="H22">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="I22">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>-39102</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="B23" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C23" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E23" s="3">
-        <v>2200</v>
-      </c>
-      <c r="G23" s="4">
-        <v>469227</v>
-      </c>
-      <c r="H23" s="3">
-        <v>15</v>
-      </c>
-      <c r="I23" s="3">
-        <v>15</v>
-      </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-27930</v>
+        <v>-1136</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="b">
+        <v>0</v>
+      </c>
+      <c r="B23" t="b">
+        <v>1</v>
+      </c>
+      <c r="C23" t="b">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>1500</v>
+      </c>
+      <c r="G23" s="2">
+        <v>22240</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>-1136</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -1129,22 +1121,22 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>2300</v>
+        <v>1400</v>
       </c>
       <c r="G24" s="2">
-        <v>381243</v>
+        <v>22240</v>
       </c>
       <c r="H24">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I24">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>-19132</v>
+        <v>-1136</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -1158,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>2400</v>
+        <v>1300</v>
       </c>
       <c r="G25" s="2">
-        <v>320896</v>
+        <v>22240</v>
       </c>
       <c r="H25">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I25">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>-16891</v>
+        <v>-1136</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -1187,22 +1179,22 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>2500</v>
+        <v>1200</v>
       </c>
       <c r="G26" s="2">
-        <v>260458</v>
+        <v>22240</v>
       </c>
       <c r="H26">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I26">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J26">
         <v>0</v>
       </c>
       <c r="K26">
-        <v>-14478</v>
+        <v>-1136</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -1216,138 +1208,22 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>2600</v>
+        <v>3000</v>
       </c>
       <c r="G27" s="2">
-        <v>217652</v>
+        <v>22240</v>
       </c>
       <c r="H27">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I27">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J27">
         <v>0</v>
       </c>
       <c r="K27">
-        <v>-12065</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" t="b">
-        <v>0</v>
-      </c>
-      <c r="B28" t="b">
-        <v>1</v>
-      </c>
-      <c r="C28" t="b">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>2700</v>
-      </c>
-      <c r="G28" s="2">
-        <v>217652</v>
-      </c>
-      <c r="H28">
-        <v>5</v>
-      </c>
-      <c r="I28">
-        <v>5</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <v>-12065</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" t="b">
-        <v>0</v>
-      </c>
-      <c r="B29" t="b">
-        <v>1</v>
-      </c>
-      <c r="C29" t="b">
-        <v>0</v>
-      </c>
-      <c r="E29">
-        <v>2800</v>
-      </c>
-      <c r="G29" s="2">
-        <v>131710</v>
-      </c>
-      <c r="H29">
-        <v>3</v>
-      </c>
-      <c r="I29">
-        <v>3</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29">
-        <v>-7239</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" t="b">
-        <v>0</v>
-      </c>
-      <c r="B30" t="b">
-        <v>1</v>
-      </c>
-      <c r="C30" t="b">
-        <v>0</v>
-      </c>
-      <c r="E30">
-        <v>2900</v>
-      </c>
-      <c r="G30" s="2">
-        <v>131710</v>
-      </c>
-      <c r="H30">
-        <v>3</v>
-      </c>
-      <c r="I30">
-        <v>3</v>
-      </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-      <c r="K30">
-        <v>-7239</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" t="b">
-        <v>0</v>
-      </c>
-      <c r="B31" t="b">
-        <v>1</v>
-      </c>
-      <c r="C31" t="b">
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <v>3000</v>
-      </c>
-      <c r="G31" s="2">
-        <v>88565</v>
-      </c>
-      <c r="H31">
-        <v>2</v>
-      </c>
-      <c r="I31">
-        <v>2</v>
-      </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-      <c r="K31">
-        <v>-4826</v>
+        <v>-1136</v>
       </c>
     </row>
   </sheetData>
